--- a/Assets/Excel/TaskData_2.xlsx
+++ b/Assets/Excel/TaskData_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15150" windowHeight="11025"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>出售</t>
     </r>
     <r>
@@ -799,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -814,12 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1137,14 +1137,14 @@
   <sheetPr/>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="14.625" customWidth="1"/>
@@ -1814,7 +1814,7 @@
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="1">
@@ -1834,7 +1834,7 @@
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="1">
@@ -1854,7 +1854,7 @@
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="1">
@@ -1874,7 +1874,7 @@
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="1">
@@ -1894,7 +1894,7 @@
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="1">
@@ -1914,7 +1914,7 @@
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="1">
@@ -1934,7 +1934,7 @@
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="1">
@@ -1954,7 +1954,7 @@
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="1">
@@ -1974,7 +1974,7 @@
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="1">
@@ -1994,7 +1994,7 @@
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="1">
@@ -2014,7 +2014,7 @@
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="1">
@@ -2034,7 +2034,7 @@
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="1">
@@ -2054,7 +2054,7 @@
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="1">
@@ -2074,7 +2074,7 @@
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="1">
@@ -2094,7 +2094,7 @@
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="1">
@@ -2114,7 +2114,7 @@
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="1">
@@ -2134,7 +2134,7 @@
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="1">
@@ -2154,7 +2154,7 @@
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C51" s="1">
@@ -2174,7 +2174,7 @@
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="1">
@@ -2194,7 +2194,7 @@
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="1">
@@ -2214,7 +2214,7 @@
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C54" s="1">
@@ -2234,7 +2234,7 @@
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C55" s="1">
@@ -2254,7 +2254,7 @@
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C56" s="1">
@@ -2274,7 +2274,7 @@
       <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C57" s="1">
@@ -2294,7 +2294,7 @@
       <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C58" s="1">
@@ -2314,7 +2314,7 @@
       <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C59" s="1">
@@ -2334,7 +2334,7 @@
       <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C60" s="1">
@@ -2354,7 +2354,7 @@
       <c r="A61" s="1">
         <v>58</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C61" s="1">
@@ -2374,7 +2374,7 @@
       <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C62" s="1">
@@ -2394,10 +2394,10 @@
       <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="5">
         <v>100000</v>
       </c>
       <c r="D63" s="1">
